--- a/Inputs/Allianz/addons.xlsx
+++ b/Inputs/Allianz/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dental" sheetId="1" state="visible" r:id="rId2"/>
@@ -367,7 +367,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.59"/>
@@ -539,13 +539,13 @@
   </sheetPr>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
   </cols>
@@ -3032,7 +3032,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3134,11 +3134,11 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.3"/>
   </cols>
